--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -451,883 +451,1191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>240022</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>华宝资源优选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>85.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>011068</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>华宝资源优选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>85.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000368</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富沪深300安中指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161217</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>42.85</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1.52</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>15.09</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007143</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007144</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009096</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009097</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002053</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002270</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴安盈量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>86.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>673030</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>西部利得多策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>71.13</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1666,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>44.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3541</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1434,25 +1772,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510020</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时上证超级大盘ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000368</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4114</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>160716</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>002270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>东吴安盈量化灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>000368</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>汇添富沪深300安中指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.84</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1686,25 +2114,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.84</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512750</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50ETF</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>97.42</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>166802</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>浙商沪深 300 指数增强（LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1798,25 +2266,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>161217</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1854,25 +2342,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>510020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>博时上证超级大盘ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1882,25 +2380,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>673030</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>西部利得多策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>52.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>519007</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>海富通强化回报混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15.07</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1976,15 +2504,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>99.33</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>10.07</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519616</t>
+          <t>512750</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银河君信灵活配置混合A</t>
+          <t>嘉实中证锐联基本面50ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2022,25 +2570,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519617</t>
+          <t>519616</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>银河君信灵活配置混合C</t>
+          <t>银河君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>28.87</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2060,15 +2618,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>28.87</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2078,25 +2646,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>160716</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>160725</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2760,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002270</t>
+          <t>003182</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合</t>
+          <t>华富弘鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>673030</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>西部利得多策略优选灵活配置混合</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>52.25</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>002728</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>华富益鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>166802</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>浙商沪深 300 指数增强（LOF）</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2358,25 +3026,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002728</t>
+          <t>002729</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华富益鑫灵活配置混合A</t>
+          <t>华富益鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>22.14</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>0.31</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002729</t>
+          <t>003183</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华富益鑫灵活配置混合C</t>
+          <t>华富弘鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>22.14</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>003182</t>
+          <t>160725</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华富弘鑫灵活配置混合A</t>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>003183</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华富弘鑫灵活配置混合C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>519617</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>银河君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>95.58</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3251,4 +3252,2074 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7501</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005168</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信达澳银新征程定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5322,4 +5323,2264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7583,4 +7584,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7592,7 +7593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7603,17 +7604,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7623,14 +7644,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.92</v>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7639,14 +7682,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.57</v>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7655,14 +7720,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.130000000000001</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7671,13 +7758,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8295,7 +8296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8306,17 +8307,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8326,14 +8347,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.46</v>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8342,14 +8385,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.92</v>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8358,14 +8423,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.57</v>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8374,14 +8461,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.130000000000001</v>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8390,13 +8499,925 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9300,7 +9301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9311,17 +9312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9331,14 +9352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.67</v>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9347,14 +9390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.46</v>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9363,14 +9428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.92</v>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9379,14 +9466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>53</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.57</v>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9395,14 +9504,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>41</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.130000000000001</v>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -9411,13 +9542,903 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>4.92</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>7.57</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>9.130000000000001</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.69</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>36.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3197</t>
+          <t>1.1776</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007143</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>98.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2962</t>
+          <t>0.4764</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2105</t>
+          <t>0.4699</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002270</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.01</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1979</t>
+          <t>0.4094</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012708</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数A</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.2177</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>002270</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>东吴安盈量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>52.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.1857</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007144</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强C</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.1575</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.60</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0863</t>
+          <t>0.1484</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>900008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>中信证券稳健回报混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>54.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0705</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>99.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0529</t>
+          <t>0.1187</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>161217</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>国投瑞银中证上游资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>92.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>012708</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>东方红中证东方红红利低波动指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>95.71</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0860</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1112,32 +1129,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>005125</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>华宝标普中国A股红利机会指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>98.54</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>61.20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0605</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008856</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.0569</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>501219</t>
+          <t>517180</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏智胜先锋股票（LOF）A</t>
+          <t>南方富时中国国企开放共赢ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>97.73</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.0535</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>94.96</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0534</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1302,32 +1319,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011607</t>
+          <t>005295</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数C</t>
+          <t>诺德天富灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>014198</t>
+          <t>159719</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华夏智胜先锋股票（LOF）C</t>
+          <t>平安富时中国国企开放共赢ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>000368</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>汇添富沪深300安中指数</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>98.15</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>516570</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+          <t>民生加银中证内地资源主题指数A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>96.00</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002837</t>
+          <t>002545</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏网购精选灵活配置混合A</t>
+          <t>东方岳灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>900078</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>中信证券稳健回报混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>54.97</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007939</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏网购精选灵活配置混合C</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1568,34 +1585,910 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004513</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004512</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>015154</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>东吴安盈量化灵活配置混合C</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>76.01</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛沪港深基本面（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1660,36 +2553,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.61</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2223</t>
+          <t>0.3197</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1698,36 +2591,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002270</t>
+          <t>007143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合</t>
+          <t>国投瑞银沪深300指数量化增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.02</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2096</t>
+          <t>0.2962</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1736,36 +2629,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2042</t>
+          <t>0.2105</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1774,36 +2667,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007143</t>
+          <t>002270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
+          <t>东吴安盈量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>76.01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1507</t>
+          <t>0.1979</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1822,26 +2715,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1279</t>
+          <t>0.1042</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1860,22 +2753,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1051</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1888,36 +2781,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>007144</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>国投瑞银沪深300指数量化增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0771</t>
+          <t>0.0886</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1926,36 +2819,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.0863</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1964,32 +2857,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000368</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0610</t>
+          <t>0.0705</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2002,36 +2895,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007144</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强C</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2040,32 +2933,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0544</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2078,36 +2971,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>95.71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2116,36 +3009,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>98.54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2154,36 +3047,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2192,36 +3085,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>008856</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>86.65</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2230,36 +3123,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003861</t>
+          <t>501219</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商兴福灵活配置混合A</t>
+          <t>华夏智胜先锋股票（LOF）A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.12</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2268,36 +3161,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003862</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商兴福灵活配置混合C</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.12</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2306,36 +3199,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>011607</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>民生加银中证内地资源主题指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2344,36 +3237,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>516570</t>
+          <t>014198</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+          <t>华夏智胜先锋股票（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>96.03</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2382,36 +3275,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010850</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35.43</t>
+          <t>98.15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2420,36 +3313,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003186</t>
+          <t>516570</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华兴安定期开放灵活配置混合</t>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>96.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2458,36 +3351,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>002837</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>华夏网购精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>97.34</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -2496,27 +3389,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010851</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35.43</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2525,7 +3418,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2534,36 +3427,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>007939</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>华夏网购精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2572,12 +3465,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>015154</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>东吴安盈量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2587,19 +3480,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>76.01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2608,6 +3501,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3309,7 +5206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5569,7 +7466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7639,7 +9536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9253,7 +11150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600028-中国石化.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>4.7</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>3.46</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>4.92</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>7.57</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
-        <v>9.130000000000001</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1224 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4152</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1828,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001324</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005280</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>50.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009624</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信稳健阿尔法定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>50.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2489,1010 +5656,6 @@
       </c>
       <c r="H49" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3197</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007143</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2962</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2105</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴安盈量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1979</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012708</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红中证东方红红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1042</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161217</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0888</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007144</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0863</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0705</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0529</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>510760</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰上证综合ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>95.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008856</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>86.65</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501219</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏智胜先锋股票（LOF）A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012709</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方红中证东方红红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011607</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>014198</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华夏智胜先锋股票（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>98.15</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>516570</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002837</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华夏网购精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007939</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏网购精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>015154</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东吴安盈量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>76.01</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3557,36 +5720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.61</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2223</t>
+          <t>0.3197</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3595,36 +5758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002270</t>
+          <t>007143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴安盈量化灵活配置混合</t>
+          <t>国投瑞银沪深300指数量化增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.02</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2096</t>
+          <t>0.2962</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3633,36 +5796,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2042</t>
+          <t>0.2105</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3671,36 +5834,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007143</t>
+          <t>002270</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
+          <t>东吴安盈量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>76.01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1507</t>
+          <t>0.1979</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3719,26 +5882,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1279</t>
+          <t>0.1042</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3757,22 +5920,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1051</t>
+          <t>0.0888</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3785,36 +5948,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>007144</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>国投瑞银沪深300指数量化增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0771</t>
+          <t>0.0886</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3823,36 +5986,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.0863</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3861,32 +6024,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000368</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0610</t>
+          <t>0.0705</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3899,36 +6062,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007144</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强C</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3937,32 +6100,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0544</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3975,36 +6138,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>510760</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>国泰上证综合ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>95.71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -4013,36 +6176,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012709</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方红中证东方红红利低波动指数C</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>98.54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -4051,36 +6214,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -4089,36 +6252,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008115</t>
+          <t>008856</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数C</t>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>86.65</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -4127,36 +6290,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003861</t>
+          <t>501219</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商兴福灵活配置混合A</t>
+          <t>华夏智胜先锋股票（LOF）A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.12</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4165,36 +6328,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003862</t>
+          <t>012709</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商兴福灵活配置混合C</t>
+          <t>东方红中证东方红红利低波动指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.12</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -4203,36 +6366,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>011607</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>民生加银中证内地资源主题指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4241,36 +6404,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>516570</t>
+          <t>014198</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+          <t>华夏智胜先锋股票（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>96.03</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4279,36 +6442,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010850</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>35.43</t>
+          <t>98.15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -4317,36 +6480,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003186</t>
+          <t>516570</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华兴安定期开放灵活配置混合</t>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>96.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -4355,36 +6518,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>002837</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>华夏网购精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>97.34</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -4393,27 +6556,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010851</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>35.43</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4422,7 +6585,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -4431,36 +6594,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>007939</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>华夏网购精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>92.73</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -4469,12 +6632,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>015154</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>东吴安盈量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4484,19 +6647,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>57.39</t>
+          <t>76.01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4505,6 +6668,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5206,7 +8373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7466,7 +10633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9536,7 +12703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11148,1198 +14315,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4152</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8986</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6150</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>240022</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4427</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515450</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3202</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>15.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2973</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2412</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002270</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东吴安盈量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1957</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1675</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1376</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>673030</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得多策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1330</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0856</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000368</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富沪深300安中指数</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>161217</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0694</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0607</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0607</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007143</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0449</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009096</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0402</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007144</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009097</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002053</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>